--- a/data/learning_time_log.xlsx
+++ b/data/learning_time_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\ITDP_hackaton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard_Neznik\ITDP_hackaton\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6BF1A0-B8B4-46A4-8808-A4A51C633273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB492A-6955-4CAC-871D-01A0F8E72CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="-12255" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,18 +192,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -246,6 +260,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,8 +312,8 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Please upload the certificate" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Udemy course name" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Please specify the type of project" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Status" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Learning time" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Status" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Learning time" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,18 +616,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,11 +674,11 @@
       <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -673,14 +712,14 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,14 +749,14 @@
         <v>22</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,14 +786,14 @@
       <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -788,14 +827,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -825,14 +864,28 @@
         <v>33</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$N1="Approved"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>$N1="Denied"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>$N1="Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
